--- a/sheet_details.xlsx
+++ b/sheet_details.xlsx
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>Mylargo</t>
+  </si>
+  <si>
+    <t>Written test case on the TFS- 7191 requirement</t>
+  </si>
+  <si>
+    <t>Retested the internal bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing on the admin portal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing on the admin portal and checkout process  </t>
+  </si>
+  <si>
+    <t>Retested the fixed issues and general discussion about the ongoing tasks</t>
   </si>
 </sst>
 </file>
@@ -1067,13 +1082,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B11" sqref="B11" activeCellId="0"/>
+      <selection activeCell="E15" sqref="E15" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="54.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="68.1406" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="12.4285714285714" customWidth="1"/>
@@ -1095,10 +1110,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1109,7 +1124,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1120,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1131,7 +1146,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -1145,6 +1160,21 @@
       <c r="C6" s="1">
         <f>SUM(C2:C5)</f>
         <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
